--- a/Milestones (1).xlsx
+++ b/Milestones (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48667A2-7E17-48A9-BFBE-646B11B4FA76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="1200" windowWidth="15375" windowHeight="8325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>MILESTONES</t>
   </si>
@@ -105,12 +106,18 @@
   </si>
   <si>
     <t>Menampilkan Tampilan AR Rumah</t>
+  </si>
+  <si>
+    <t>Mikael Adi</t>
+  </si>
+  <si>
+    <t>WIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
@@ -156,9 +163,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -171,6 +175,9 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,11 +458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -469,40 +476,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -513,20 +520,20 @@
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D5" s="2">
         <v>43614</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -535,20 +542,20 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D6" s="2">
         <v>43614</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -557,16 +564,16 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D7" s="2">
         <v>43614</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -577,16 +584,16 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D8" s="2">
         <v>43614</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
     </row>
@@ -597,16 +604,16 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D9" s="2">
         <v>43614</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>1</v>
       </c>
     </row>
@@ -617,16 +624,16 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D10" s="2">
         <v>43614</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>1</v>
       </c>
     </row>
@@ -637,16 +644,16 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D11" s="2">
         <v>43614</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0.1</v>
       </c>
     </row>
@@ -657,16 +664,16 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D12" s="2">
         <v>43614</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1</v>
       </c>
     </row>
@@ -677,16 +684,16 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D13" s="2">
         <v>43614</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>1</v>
       </c>
     </row>
@@ -697,33 +704,33 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D14" s="2">
         <v>43614</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -732,13 +739,18 @@
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D18" s="2">
         <v>43645</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -747,13 +759,18 @@
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D19" s="2">
         <v>43645</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -762,13 +779,18 @@
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D20" s="2">
         <v>43645</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -777,13 +799,18 @@
       <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D21" s="2">
         <v>43645</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -792,13 +819,18 @@
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D22" s="2">
         <v>43645</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -807,11 +839,17 @@
       <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D23" s="2">
         <v>43645</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -821,11 +859,17 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="3">
-        <v>43607</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D24" s="2">
         <v>43645</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
